--- a/test/CommutationFuncs.xlsx
+++ b/test/CommutationFuncs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alecl\.julia\dev\LifeContingencies\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94704BB-CCA5-42C5-9BAE-4DE6179626D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62961012-AF09-41F9-9111-616C74779809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15255" windowHeight="23400" activeTab="1" xr2:uid="{B9D57237-D728-4D60-88E6-0E31D4AFCAC5}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>i</t>
   </si>
@@ -113,16 +113,23 @@
   <si>
     <t>duration</t>
   </si>
+  <si>
+    <t>Px</t>
+  </si>
+  <si>
+    <t>tV0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000000000000000_);_(* \(#,##0.000000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000000000000000_);_(* \(#,##0.0000000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.000000000000000000_);_(* \(#,##0.000000000000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000000000000000_);_(* \(#,##0.0000000000000000\);_(* &quot;-&quot;????????????????_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,13 +168,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6905,13 +6913,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD283E-4197-4B6A-844A-A10EF86C1FA4}">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:O225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="K79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7:O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,10 +6932,11 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="12" max="13" width="25.85546875" customWidth="1"/>
+    <col min="12" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6938,7 +6947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6950,7 +6959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6962,7 +6971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7010,8 +7019,14 @@
       <c r="M6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7061,8 +7076,16 @@
         <f>G7/E7</f>
         <v>18.673525637928062</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <f>L7/M7</f>
+        <v>5.9327036350854271E-3</v>
+      </c>
+      <c r="O7" s="6">
+        <f>L7-$N$7*M7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -7114,18 +7137,26 @@
         <f t="shared" ref="M8:M71" si="7">G8/E8</f>
         <v>18.563327818004414</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <f t="shared" ref="N8:N71" si="8">L8/M8</f>
+        <v>6.2506038682308886E-3</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" ref="O8:O71" si="9">L8-$N$7*M8</f>
+        <v>5.9012862412992362E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:B72" si="8">A8+1</f>
+        <f t="shared" ref="A9:B72" si="10">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:C72" si="9">C8-D8</f>
+        <f t="shared" ref="C9:C72" si="11">C8-D8</f>
         <v>0.99921015179999995</v>
       </c>
       <c r="D9" s="3">
@@ -7167,18 +7198,26 @@
         <f t="shared" si="7"/>
         <v>18.449981200256751</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <f t="shared" si="8"/>
+        <v>6.5815496144110168E-3</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="9"/>
+        <v>1.1971196120419303E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="B10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99866058621650999</v>
       </c>
       <c r="D10" s="3">
@@ -7220,18 +7259,26 @@
         <f t="shared" si="7"/>
         <v>18.332563170013081</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <f t="shared" si="8"/>
+        <v>6.9286984176723347E-3</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8259137268777925E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="B11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99802144344133148</v>
       </c>
       <c r="D11" s="3">
@@ -7273,18 +7320,26 @@
         <f t="shared" si="7"/>
         <v>18.210846270126616</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="4">
+        <f t="shared" si="8"/>
+        <v>7.2932823829038197E-3</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="9"/>
+        <v>2.4777290414922118E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99729288778761926</v>
       </c>
       <c r="D12" s="3">
@@ -7326,18 +7381,26 @@
         <f t="shared" si="7"/>
         <v>18.084590334577186</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <f t="shared" si="8"/>
+        <v>7.6766478597727946E-3</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="9"/>
+        <v>3.1538516869822869E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9964950534773892</v>
       </c>
       <c r="D13" s="3">
@@ -7379,18 +7442,26 @@
         <f t="shared" si="7"/>
         <v>17.95318239722382</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0813835287266746E-3</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="9"/>
+        <v>3.8575642043788799E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="B14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99563806773139862</v>
       </c>
       <c r="D14" s="3">
@@ -7432,18 +7503,26 @@
         <f t="shared" si="7"/>
         <v>17.816163417624171</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="4">
+        <f t="shared" si="8"/>
+        <v>8.5097594961124953E-3</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="9"/>
+        <v>4.5913248356404424E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="B15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9947320370897631</v>
       </c>
       <c r="D15" s="3">
@@ -7485,18 +7564,26 @@
         <f t="shared" si="7"/>
         <v>17.673054067706992</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <f t="shared" si="8"/>
+        <v>8.9642682113070422E-3</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="9"/>
+        <v>5.3577004665309846E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99372735773230247</v>
       </c>
       <c r="D16" s="3">
@@ -7538,18 +7625,26 @@
         <f t="shared" si="7"/>
         <v>17.524406421578139</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="4">
+        <f t="shared" si="8"/>
+        <v>9.4442260772688389E-3</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="9"/>
+        <v>6.1537346435314721E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="B17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99262432036521964</v>
       </c>
       <c r="D17" s="3">
@@ -7591,18 +7686,26 @@
         <f t="shared" si="7"/>
         <v>17.369907339804229</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <f t="shared" si="8"/>
+        <v>9.9517833840882756E-3</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="9"/>
+        <v>6.981104283146311E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9914133186943741</v>
       </c>
       <c r="D18" s="3">
@@ -7644,18 +7747,26 @@
         <f t="shared" si="7"/>
         <v>17.209398172564963</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0488736858516964E-2</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="9"/>
+        <v>7.8406589829467938E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="B19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99008482484732363</v>
       </c>
       <c r="D19" s="3">
@@ -7697,18 +7808,26 @@
         <f t="shared" si="7"/>
         <v>17.04270530630367</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1057082844237703E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="9"/>
+        <v>8.7333284739331718E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="B20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98861949930654958</v>
       </c>
       <c r="D20" s="3">
@@ -7750,18 +7869,26 @@
         <f t="shared" si="7"/>
         <v>16.869807887292044</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1658450185375804E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="9"/>
+        <v>9.6592244314723796E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="B21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98697839093770068</v>
       </c>
       <c r="D21" s="3">
@@ -7803,18 +7930,26 @@
         <f t="shared" si="7"/>
         <v>16.691005350538539</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <f t="shared" si="8"/>
+        <v>1.2293460884685723E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="9"/>
+        <v>0.10616743328655534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="B22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98511300177882843</v>
       </c>
       <c r="D22" s="3">
@@ -7856,18 +7991,26 @@
         <f t="shared" si="7"/>
         <v>16.506753381957381</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
+        <v>1.2962217325096051E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="9"/>
+        <v>0.11603444887609858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98298515769498618</v>
       </c>
       <c r="D23" s="3">
@@ -7909,18 +8052,26 @@
         <f t="shared" si="7"/>
         <v>16.31733649789069</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3665464110502575E-2</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="9"/>
+        <v>0.12617805473497079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="B24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.98063582316809517</v>
       </c>
       <c r="D24" s="3">
@@ -7962,18 +8113,26 @@
         <f t="shared" si="7"/>
         <v>16.121734267684992</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="4">
+        <f t="shared" si="8"/>
+        <v>1.4409018555224768E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="9"/>
+        <v>0.1366528967117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="B25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.97808617002785814</v>
       </c>
       <c r="D25" s="3">
@@ -8015,18 +8174,26 @@
         <f t="shared" si="7"/>
         <v>15.919210929485903</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5198136249518249E-2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="9"/>
+        <v>0.14749837614209416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="B26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.97535730961348044</v>
       </c>
       <c r="D26" s="3">
@@ -8068,18 +8235,26 @@
         <f t="shared" si="7"/>
         <v>15.708999584801795</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6038729860778866E-2</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="9"/>
+        <v>0.15875556178341432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="B27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.97246049840392845</v>
       </c>
       <c r="D27" s="3">
@@ -8121,18 +8296,26 @@
         <f t="shared" si="7"/>
         <v>15.49045621901235</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6936830262240365E-2</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="9"/>
+        <v>0.1704589417464116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.96936807401900393</v>
       </c>
       <c r="D28" s="3">
@@ -8174,18 +8357,26 @@
         <f t="shared" si="7"/>
         <v>15.263517014067709</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="4">
+        <f t="shared" si="8"/>
+        <v>1.7896652273601224E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="9"/>
+        <v>0.18261193359941807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="B29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.96602375416363839</v>
       </c>
       <c r="D29" s="3">
@@ -8227,18 +8418,26 @@
         <f t="shared" si="7"/>
         <v>15.028541332367762</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="4">
+        <f t="shared" si="8"/>
+        <v>1.8921009588383868E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="9"/>
+        <v>0.19519529285658391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="B30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.96238184461044152</v>
       </c>
       <c r="D30" s="3">
@@ -8280,18 +8479,26 @@
         <f t="shared" si="7"/>
         <v>14.785710527675489</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="4">
+        <f t="shared" si="8"/>
+        <v>2.0013819812532824E-2</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="9"/>
+        <v>0.20819930770630563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="B31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.95834946468152382</v>
       </c>
       <c r="D31" s="3">
@@ -8333,18 +8540,26 @@
         <f t="shared" si="7"/>
         <v>14.535901481265768</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="4">
+        <f t="shared" si="8"/>
+        <v>2.117613521077719E-2</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="9"/>
+        <v>0.22157701962067125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="B32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.95384522219752066</v>
       </c>
       <c r="D32" s="3">
@@ -8386,18 +8601,26 @@
         <f t="shared" si="7"/>
         <v>14.279811670178889</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="4">
+        <f t="shared" si="8"/>
+        <v>2.2409887152433992E-2</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="9"/>
+        <v>0.23529107748271327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="B33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.94877076561542983</v>
       </c>
       <c r="D33" s="3">
@@ -8439,18 +8662,26 @@
         <f t="shared" si="7"/>
         <v>14.018380035476573</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="4">
+        <f t="shared" si="8"/>
+        <v>2.3715871071220519E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="9"/>
+        <v>0.24929119935425328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="B34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.94312557956001808</v>
       </c>
       <c r="D34" s="3">
@@ -8492,18 +8723,26 @@
         <f t="shared" si="7"/>
         <v>13.751118190483776</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5102311193214794E-2</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="9"/>
+        <v>0.263603539197028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="B35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.93687265696753519</v>
       </c>
       <c r="D35" s="3">
@@ -8545,18 +8784,26 @@
         <f t="shared" si="7"/>
         <v>13.4780334618601</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="4">
+        <f t="shared" si="8"/>
+        <v>2.6575752596412726E-2</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="9"/>
+        <v>0.27822770465558572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="B36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.93014591129050828</v>
       </c>
       <c r="D36" s="3">
@@ -8598,18 +8845,26 @@
         <f t="shared" si="7"/>
         <v>13.196687350127018</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="4">
+        <f t="shared" si="8"/>
+        <v>2.8157544905164492E-2</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="9"/>
+        <v>0.29329428164743326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="B37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.92287217026421653</v>
       </c>
       <c r="D37" s="3">
@@ -8651,18 +8906,26 @@
         <f t="shared" si="7"/>
         <v>12.907458039502279</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="4">
+        <f t="shared" si="8"/>
+        <v>2.9855540866119398E-2</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="9"/>
+        <v>0.30878301774541383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="B38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.91488932599143102</v>
       </c>
       <c r="D38" s="3">
@@ -8704,18 +8967,26 @@
         <f t="shared" si="7"/>
         <v>12.611924084811006</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="4">
+        <f t="shared" si="8"/>
+        <v>3.167099514328834E-2</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="9"/>
+        <v>0.32460937857419092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="B39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.90605149510235383</v>
       </c>
       <c r="D39" s="3">
@@ -8723,11 +8994,11 @@
         <v>9.8940823265177037E-3</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" ref="E39:E70" si="10">C39*v^A39</f>
+        <f t="shared" ref="E39:E70" si="12">C39*v^A39</f>
         <v>0.19014955400236566</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" ref="F39:F70" si="11">v^(1+A39)*(C39-C40)</f>
+        <f t="shared" ref="F39:F70" si="13">v^(1+A39)*(C39-C40)</f>
         <v>1.9775553616245968E-3</v>
       </c>
       <c r="G39" s="3">
@@ -8757,18 +9028,26 @@
         <f t="shared" si="7"/>
         <v>12.311448885283395</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3606160666173703E-2</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="9"/>
+        <v>0.34070035171732965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="B40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.89615741277583616</v>
       </c>
       <c r="D40" s="3">
@@ -8776,11 +9055,11 @@
         <v>1.1058582473653818E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.17911725797396175</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1050542508558832E-3</v>
       </c>
       <c r="G40" s="3">
@@ -8810,18 +9089,26 @@
         <f t="shared" si="7"/>
         <v>12.008150331163877</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="4">
+        <f t="shared" si="8"/>
+        <v>3.5657724608293057E-2</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="9"/>
+        <v>0.3569425204432764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="B41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.88509883030218239</v>
       </c>
       <c r="D41" s="3">
@@ -8829,11 +9116,11 @@
         <v>1.2232065834776162E-2</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16848281048625052</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2175547056380866E-3</v>
       </c>
       <c r="G41" s="3">
@@ -8863,18 +9150,26 @@
         <f t="shared" si="7"/>
         <v>11.702972528726555</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="4">
+        <f t="shared" si="8"/>
+        <v>3.7829328641373589E-2</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="9"/>
+        <v>0.37328532620768284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="B42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.87286676446740619</v>
       </c>
       <c r="D42" s="3">
@@ -8882,11 +9177,11 @@
         <v>1.3424690837508706E-2</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15824226480507669</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3178724120972252E-3</v>
       </c>
       <c r="G42" s="3">
@@ -8916,18 +9211,26 @@
         <f t="shared" si="7"/>
         <v>11.395608464137259</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="4">
+        <f t="shared" si="8"/>
+        <v>4.0134055091269813E-2</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="9"/>
+        <v>0.38974521013902796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="B43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.85944207362989744</v>
       </c>
       <c r="D43" s="3">
@@ -8935,11 +9238,11 @@
         <v>1.4567543148026761E-2</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14838904644988057</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3954231784052171E-3</v>
       </c>
       <c r="G43" s="3">
@@ -8969,18 +9272,26 @@
         <f t="shared" si="7"/>
         <v>11.085889873600095</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="4">
+        <f t="shared" si="8"/>
+        <v>4.2585709184589475E-2</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="9"/>
+        <v>0.406331183058255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="B44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.84487453048187067</v>
       </c>
       <c r="D44" s="3">
@@ -8988,11 +9299,11 @@
         <v>1.5655525049829064E-2</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13892747820243342</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4517392105629396E-3</v>
       </c>
       <c r="G44" s="3">
@@ -9022,18 +9333,26 @@
         <f t="shared" si="7"/>
         <v>10.772783039804791</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5207476066156042E-2</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="9"/>
+        <v>0.4230986023376303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="B45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.82921900543204163</v>
       </c>
       <c r="D45" s="3">
@@ -9041,11 +9360,11 @@
         <v>1.6783392669944525E-2</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12986014479175462</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5032088862715404E-3</v>
       </c>
       <c r="G45" s="3">
@@ -9075,18 +9394,26 @@
         <f t="shared" si="7"/>
         <v>10.45515623686412</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4">
+        <f t="shared" si="8"/>
+        <v>4.8027538366350896E-2</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="9"/>
+        <v>0.4401080738803545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="B46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.81243561276209708</v>
       </c>
       <c r="D46" s="3">
@@ -9094,11 +9421,11 @@
         <v>1.7857334768510893E-2</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12117311948682806</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5365573012576053E-3</v>
       </c>
       <c r="G46" s="3">
@@ -9128,18 +9455,26 @@
         <f t="shared" si="7"/>
         <v>10.133006092009605</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="4">
+        <f t="shared" si="8"/>
+        <v>5.1068349873839632E-2</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="9"/>
+        <v>0.45735977830408681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="B47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79457827799358616</v>
       </c>
       <c r="D47" s="3">
@@ -9147,11 +9482,11 @@
         <v>1.9165228065205299E-2</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.11286641363857865</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5927027590119168E-3</v>
       </c>
       <c r="G47" s="3">
@@ -9181,18 +9516,26 @@
         <f t="shared" si="7"/>
         <v>9.8051741238523586</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4367922461103231E-2</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="9"/>
+        <v>0.47491575431599642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="B48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.77541304992838089</v>
       </c>
       <c r="D48" s="3">
@@ -9200,11 +9543,11 @@
         <v>2.0563954084100659E-2</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10489911975392013</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6494520532132902E-3</v>
       </c>
       <c r="G48" s="3">
@@ -9234,18 +9577,26 @@
         <f t="shared" si="7"/>
         <v>9.4739443682061033</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="4">
+        <f t="shared" si="8"/>
+        <v>5.7933609345661802E-2</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="9"/>
+        <v>0.49265368779833163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="B49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.75484909584428028</v>
       </c>
       <c r="D49" s="3">
@@ -9253,11 +9604,11 @@
         <v>2.2441663619450453E-2</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.7254471521948729E-2</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7536908936643179E-3</v>
       </c>
       <c r="G49" s="3">
@@ -9287,18 +9638,26 @@
         <f t="shared" si="7"/>
         <v>9.1400353233927856</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="4">
+        <f t="shared" si="8"/>
+        <v>6.1789719920463282E-2</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="9"/>
+        <v>0.5105351019076797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="B50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.73240743222482985</v>
       </c>
       <c r="D50" s="3">
@@ -9306,11 +9665,11 @@
         <v>2.4235361932319621E-2</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9869615317715437E-2</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8321767341554253E-3</v>
       </c>
       <c r="G50" s="3">
@@ -9340,18 +9699,26 @@
         <f t="shared" si="7"/>
         <v>8.8089264736232415</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="4">
+        <f t="shared" si="8"/>
+        <v>6.5902163279274784E-2</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="9"/>
+        <v>0.52826656066858024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="B51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.70817207029251028</v>
       </c>
       <c r="D51" s="3">
@@ -9359,11 +9726,11 @@
         <v>2.5933261214111727E-2</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.2757933092240221E-2</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8862814379408013E-3</v>
       </c>
       <c r="G51" s="3">
@@ -9393,18 +9760,26 @@
         <f t="shared" si="7"/>
         <v>8.4799751758740776</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="4">
+        <f t="shared" si="8"/>
+        <v>7.0305825892969936E-2</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="9"/>
+        <v>0.54588247874036777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="B52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.68223880907839851</v>
       </c>
       <c r="D52" s="3">
@@ -9412,11 +9787,11 @@
         <v>2.7610204603402785E-2</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.5930797697526073E-2</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9265898883989341E-3</v>
       </c>
       <c r="G52" s="3">
@@ -9446,18 +9821,26 @@
         <f t="shared" si="7"/>
         <v>8.1525191873069627</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5042423887446488E-2</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="9"/>
+        <v>0.56341832038679018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="B53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.65462860447499571</v>
       </c>
       <c r="D53" s="3">
@@ -9465,11 +9848,11 @@
         <v>2.9085148896824058E-2</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.9388455537816363E-2</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9361229329001675E-3</v>
       </c>
       <c r="G53" s="3">
@@ -9499,18 +9882,26 @@
         <f t="shared" si="7"/>
         <v>7.8268997808013436</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="4">
+        <f t="shared" si="8"/>
+        <v>8.0145460424470016E-2</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="9"/>
+        <v>0.58085580984749774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="B54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.6255434555781717</v>
       </c>
       <c r="D54" s="3">
@@ -9518,11 +9909,11 @@
         <v>3.0676651061553539E-2</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.3148120436448754E-2</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9493179297175737E-3</v>
       </c>
       <c r="G54" s="3">
@@ -9552,18 +9943,26 @@
         <f t="shared" si="7"/>
         <v>7.5015381079789103</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="4">
+        <f t="shared" si="8"/>
+        <v>8.5686947179054257E-2</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="9"/>
+        <v>0.59827949721811313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="B55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.59486680451661811</v>
       </c>
       <c r="D55" s="3">
@@ -9571,11 +9970,11 @@
         <v>3.2378600169839525E-2</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.7191749152614567E-2</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9647113394064852E-3</v>
       </c>
       <c r="G55" s="3">
@@ -9605,18 +10004,26 @@
         <f t="shared" si="7"/>
         <v>7.1786563192751096</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="4">
+        <f t="shared" si="8"/>
+        <v>9.1682787644320751E-2</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="9"/>
+        <v>0.61557038245126861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="B56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.5624882043467786</v>
       </c>
       <c r="D56" s="3">
@@ -9624,11 +10031,11 @@
         <v>3.4109284711588653E-2</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.1503621186893098E-2</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9744567512125725E-3</v>
       </c>
       <c r="G56" s="3">
@@ -9658,18 +10065,26 @@
         <f t="shared" si="7"/>
         <v>6.8610352858475467</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="4">
+        <f t="shared" si="8"/>
+        <v>9.8131550991446076E-2</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="9"/>
+        <v>0.63257954502646219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="B57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.5283789196351899</v>
       </c>
       <c r="D57" s="3">
@@ -9677,11 +10092,11 @@
         <v>3.5596887815822743E-2</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.6076611045828476E-2</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.956363129673777E-3</v>
       </c>
       <c r="G57" s="3">
@@ -9711,18 +10126,26 @@
         <f t="shared" si="7"/>
         <v>6.5513616186977561</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="4">
+        <f t="shared" si="8"/>
+        <v>0.10502097718831054</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="9"/>
+        <v>0.64916311221962297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="B58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.49278203181936714</v>
       </c>
       <c r="D58" s="3">
@@ -9730,11 +10153,11 @@
         <v>3.6963580206770728E-2</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0926123580639052E-2</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9236843140797468E-3</v>
       </c>
       <c r="G58" s="3">
@@ -9764,18 +10187,26 @@
         <f t="shared" si="7"/>
         <v>6.2499916361607974</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4">
+        <f t="shared" si="8"/>
+        <v>0.11238116649552242</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="9"/>
+        <v>0.66530200255990457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="B59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.45581845161259643</v>
       </c>
       <c r="D59" s="3">
@@ -9783,11 +10214,11 @@
         <v>3.7764558716103611E-2</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6053576238909833E-2</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.8447988489463615E-3</v>
       </c>
       <c r="G59" s="3">
@@ -9817,18 +10248,26 @@
         <f t="shared" si="7"/>
         <v>5.9595143925543397</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="4">
+        <f t="shared" si="8"/>
+        <v>0.12017985915922498</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="9"/>
+        <v>0.68085756765450367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="B60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.41805389289649281</v>
       </c>
       <c r="D60" s="3">
@@ -9836,11 +10275,11 @@
         <v>3.8130695571089106E-2</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.1491940426205851E-2</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7355998916897485E-3</v>
       </c>
       <c r="G60" s="3">
@@ -9870,18 +10309,26 @@
         <f t="shared" si="7"/>
         <v>5.6779045000076964</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="4">
+        <f t="shared" si="8"/>
+        <v>0.12850226615060881</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="9"/>
+        <v>0.69593827057086488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="B61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37992319732540369</v>
       </c>
       <c r="D61" s="3">
@@ -9889,11 +10336,11 @@
         <v>3.8155686707390293E-2</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.7256724323744395E-2</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6070407846034743E-3</v>
       </c>
       <c r="G61" s="3">
@@ -9923,18 +10370,26 @@
         <f t="shared" si="7"/>
         <v>5.4047686759406268</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13740274701418215</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="9"/>
+        <v>0.71056517227989735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="B62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34176751061801341</v>
       </c>
       <c r="D62" s="3">
@@ -9942,11 +10397,11 @@
         <v>3.7819992724989364E-2</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.3351744285629278E-2</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4610514501407017E-3</v>
       </c>
       <c r="G62" s="3">
@@ -9976,18 +10431,26 @@
         <f t="shared" si="7"/>
         <v>5.1413532129102313</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="4">
+        <f t="shared" si="8"/>
+        <v>0.14688227500724907</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="9"/>
+        <v>0.72467153163259346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="B63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.30394751789302404</v>
       </c>
       <c r="D63" s="3">
@@ -9995,11 +10458,11 @@
         <v>3.7069439282233212E-2</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9778705012363375E-2</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2973436793407979E-3</v>
       </c>
       <c r="G63" s="3">
@@ -10029,18 +10492,26 @@
         <f t="shared" si="7"/>
         <v>4.8894920655269551</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="4">
+        <f t="shared" si="8"/>
+        <v>0.15690117382694563</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="9"/>
+        <v>0.73815913714784309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="B64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26687807861079083</v>
       </c>
       <c r="D64" s="3">
@@ -10048,11 +10519,11 @@
         <v>3.5812369368782022E-2</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6539518237195752E-2</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1137504307136164E-3</v>
       </c>
       <c r="G64" s="3">
@@ -10082,18 +10553,26 @@
         <f t="shared" si="7"/>
         <v>4.6512307740003918</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="4">
+        <f t="shared" si="8"/>
+        <v>0.16737780989871601</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="9"/>
+        <v>0.75091844656516193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="B65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.23106570924200881</v>
       </c>
       <c r="D65" s="3">
@@ -10101,11 +10580,11 @@
         <v>3.4005940429146432E-2</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3638171699949003E-2</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9115521229347561E-3</v>
       </c>
       <c r="G65" s="3">
@@ -10135,18 +10614,26 @@
         <f t="shared" si="7"/>
         <v>4.4279834059440466</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="4">
+        <f t="shared" si="8"/>
+        <v>0.1782173903986779</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="9"/>
+        <v>0.7628737340874554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="B66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19705976881286238</v>
       </c>
       <c r="D66" s="3">
@@ -10154,11 +10641,11 @@
         <v>3.1669475445915113E-2</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1077182829397627E-2</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6954419547738023E-3</v>
       </c>
       <c r="G66" s="3">
@@ -10188,18 +10675,26 @@
         <f t="shared" si="7"/>
         <v>4.220515901458965</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="4">
+        <f t="shared" si="8"/>
+        <v>0.18931881100963704</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="9"/>
+        <v>0.77398398228095633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="B67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16539029336694727</v>
       </c>
       <c r="D67" s="3">
@@ -10207,11 +10702,11 @@
         <v>2.8887068639471013E-2</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.8542559779858417E-3</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4728422372523881E-3</v>
       </c>
       <c r="G67" s="3">
@@ -10241,18 +10736,26 @@
         <f t="shared" si="7"/>
         <v>4.0290503836956386</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="4">
+        <f t="shared" si="8"/>
+        <v>0.20057839464841587</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="9"/>
+        <v>0.78423729606196169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="B68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.13650322472747625</v>
       </c>
       <c r="D68" s="3">
@@ -10260,11 +10763,11 @@
         <v>2.5577974249434497E-2</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.9597825036865086E-3</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2420229005150264E-3</v>
       </c>
       <c r="G68" s="3">
@@ -10294,18 +10797,26 @@
         <f t="shared" si="7"/>
         <v>3.853566897133808</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="4">
+        <f t="shared" si="8"/>
+        <v>0.21188079413633387</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" si="9"/>
+        <v>0.79363474408352863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="B69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.11092525047804175</v>
       </c>
       <c r="D69" s="3">
@@ -10313,11 +10824,11 @@
         <v>2.2234966458323468E-2</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.3863413887102179E-3</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0282782203494892E-3</v>
       </c>
       <c r="G69" s="3">
@@ -10347,18 +10858,26 @@
         <f t="shared" si="7"/>
         <v>3.6871418891862113</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="4">
+        <f t="shared" si="8"/>
+        <v>0.2235937318329278</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="9"/>
+        <v>0.80254709471160579</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="B70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.8690284019718277E-2</v>
       </c>
       <c r="D70" s="3">
@@ -10366,11 +10885,11 @@
         <v>1.8984155294420695E-2</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1015707212792912E-3</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.3613448846650692E-4</v>
       </c>
       <c r="G70" s="3">
@@ -10400,18 +10919,26 @@
         <f t="shared" si="7"/>
         <v>3.5288587125827302</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="4">
+        <f t="shared" si="8"/>
+        <v>0.23575869046786818</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="9"/>
+        <v>0.81102343601278926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="B71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.9706128725297578E-2</v>
       </c>
       <c r="D71" s="3">
@@ -10419,11 +10946,11 @@
         <v>1.5911120942836424E-2</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" ref="E71:E102" si="12">C71*v^A71</f>
+        <f t="shared" ref="E71:E102" si="14">C71*v^A71</f>
         <v>3.0701233413232935E-3</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" ref="F71:F102" si="13">v^(1+A71)*(C71-C72)</f>
+        <f t="shared" ref="F71:F102" si="15">v^(1+A71)*(C71-C72)</f>
         <v>6.6741557513376644E-4</v>
       </c>
       <c r="G71" s="3">
@@ -10453,30 +10980,38 @@
         <f t="shared" si="7"/>
         <v>3.3784612866109387</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4">
+        <f t="shared" si="8"/>
+        <v>0.24837368847151073</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="9"/>
+        <v>0.81907748155769255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="B72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3795007782461157E-2</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" ref="D72:D126" si="14">C72*K72</f>
+        <f t="shared" ref="D72:D126" si="16">C72*K72</f>
         <v>1.3071110990982413E-2</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.2565114166027034E-3</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2217823238678558E-4</v>
       </c>
       <c r="G72" s="3">
@@ -10484,52 +11019,60 @@
         <v>7.3021695124580758E-3</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" ref="H72:H126" si="15">H73+G72</f>
+        <f t="shared" ref="H72:H126" si="17">H73+G72</f>
         <v>2.1782171283516304E-2</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" ref="I72:I126" si="16">I73+F72</f>
+        <f t="shared" ref="I72:I126" si="18">I73+F72</f>
         <v>1.9087890588666044E-3</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" ref="J72:J126" si="17">J73+I72</f>
+        <f t="shared" ref="J72:J126" si="19">J73+I72</f>
         <v>6.2649232608620624E-3</v>
       </c>
       <c r="K72">
         <v>0.24298</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" ref="L72:L126" si="18">I72/E72</f>
+        <f t="shared" ref="L72:L126" si="20">I72/E72</f>
         <v>0.84590268182218498</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" ref="M72:M94" si="19">G72/E72</f>
+        <f t="shared" ref="M72:M94" si="21">G72/E72</f>
         <v>3.2360436817341149</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4">
+        <f t="shared" ref="N72:N126" si="22">L72/M72</f>
+        <v>0.26140026681249462</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" ref="O72:O126" si="23">L72-$N$7*M72</f>
+        <v>0.82670419370826576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" ref="A73:B126" si="20">A72+1</f>
+        <f t="shared" ref="A73:B126" si="24">A72+1</f>
         <v>66</v>
       </c>
       <c r="B73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C126" si="21">C72-D72</f>
+        <f t="shared" ref="C73:C126" si="25">C72-D72</f>
         <v>4.0723896791478746E-2</v>
       </c>
       <c r="D73" s="3">
+        <f t="shared" si="16"/>
+        <v>1.047907312238331E-2</v>
+      </c>
+      <c r="E73" s="3">
         <f t="shared" si="14"/>
-        <v>1.047907312238331E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="12"/>
         <v>1.6268802596157892E-3</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.986941222898427E-4</v>
       </c>
       <c r="G73" s="3">
@@ -10537,52 +11080,60 @@
         <v>5.0456580958553729E-3</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4480001771058227E-2</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.386610826479819E-3</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3561342019954579E-3</v>
       </c>
       <c r="K73">
         <v>0.25731999999999999</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.85231277365630265</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.1014317532176441</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="4">
+        <f t="shared" si="22"/>
+        <v>0.27481268055376462</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="23"/>
+        <v>0.83391289822001902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="B74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.0244823669095436E-2</v>
       </c>
       <c r="D74" s="3">
+        <f t="shared" si="16"/>
+        <v>8.2414120015918153E-3</v>
+      </c>
+      <c r="E74" s="3">
         <f t="shared" si="14"/>
-        <v>8.2414120015918153E-3</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="12"/>
         <v>1.1507156487728135E-3</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9862714965152754E-4</v>
       </c>
       <c r="G74" s="3">
@@ -10590,52 +11141,60 @@
         <v>3.4187778362395841E-3</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.434343675202855E-3</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.8791670418997622E-4</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.9695233755156385E-3</v>
       </c>
       <c r="K74">
         <v>0.27249000000000001</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.85852374150255528</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.9710014284463386</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="4">
+        <f t="shared" si="22"/>
+        <v>0.28896779829268321</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="23"/>
+        <v>0.84089767052816766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="B75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.2003411667503622E-2</v>
       </c>
       <c r="D75" s="3">
+        <f t="shared" si="16"/>
+        <v>6.3490844366581693E-3</v>
+      </c>
+      <c r="E75" s="3">
         <f t="shared" si="14"/>
-        <v>6.3490844366581693E-3</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="12"/>
         <v>7.9729251584639024E-4</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1910357661664365E-4</v>
       </c>
       <c r="G75" s="3">
@@ -10643,52 +11202,60 @@
         <v>2.2680621874667703E-3</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0155658389632709E-3</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.8928955453844863E-4</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9816066713256621E-3</v>
       </c>
       <c r="K75">
         <v>0.28854999999999997</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.86453784632195152</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8447052272390136</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="4">
+        <f t="shared" si="22"/>
+        <v>0.3039112235755429</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="23"/>
+        <v>0.84766105327956409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="B76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.5654327230845453E-2</v>
       </c>
       <c r="D76" s="3">
+        <f t="shared" si="16"/>
+        <v>4.7831796853848281E-3</v>
+      </c>
+      <c r="E76" s="3">
         <f t="shared" si="14"/>
-        <v>4.7831796853848281E-3</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="12"/>
         <v>5.4022262895134698E-4</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5720478502484193E-4</v>
       </c>
       <c r="G76" s="3">
@@ -10696,52 +11263,60 @@
         <v>1.47076967162038E-3</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.7475036514965001E-3</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.7018597792180497E-4</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2923171167872134E-3</v>
       </c>
       <c r="K76">
         <v>0.30554999999999999</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.87035594720366738</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.72252510872298</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4">
+        <f t="shared" si="22"/>
+        <v>0.31968702305629576</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" si="23"/>
+        <v>0.85420401259453516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="B77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>71</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.0871147545460626E-2</v>
       </c>
       <c r="D77" s="3">
+        <f t="shared" si="16"/>
+        <v>3.5172510768583308E-3</v>
+      </c>
+      <c r="E77" s="3">
         <f t="shared" si="14"/>
-        <v>3.5172510768583308E-3</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="12"/>
         <v>3.5729295683358377E-4</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1009386976565493E-4</v>
       </c>
       <c r="G77" s="3">
@@ -10749,52 +11324,60 @@
         <v>9.3054704266903334E-4</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.2767339798761199E-3</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.1298119289696304E-4</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.2213113886540836E-4</v>
       </c>
       <c r="K77">
         <v>0.32353999999999999</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.87597918433847044</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.6044371288921151</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="4">
+        <f t="shared" si="22"/>
+        <v>0.33634107524457602</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="23"/>
+        <v>0.86052783071654071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>71</v>
       </c>
       <c r="B78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>7.3538964686022945E-3</v>
       </c>
       <c r="D78" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5192978522137741E-3</v>
+      </c>
+      <c r="E78" s="3">
         <f t="shared" si="14"/>
-        <v>2.5192978522137741E-3</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="12"/>
         <v>2.3018513674252E-4</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5101737281192842E-5</v>
       </c>
       <c r="G78" s="3">
@@ -10802,52 +11385,60 @@
         <v>5.7325408583544946E-4</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3461869372070863E-3</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0288732313130813E-4</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0914994596844526E-4</v>
       </c>
       <c r="K78">
         <v>0.34258</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.88140931253199639</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.4904044368280771</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="4">
+        <f t="shared" si="22"/>
+        <v>0.35392215798274523</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" si="23"/>
+        <v>0.86663448107679364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="B79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>73</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.8345986163885208E-3</v>
       </c>
       <c r="D79" s="3">
+        <f t="shared" si="16"/>
+        <v>1.753702302108772E-3</v>
+      </c>
+      <c r="E79" s="3">
         <f t="shared" si="14"/>
-        <v>1.753702302108772E-3</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="12"/>
         <v>1.4412220247358811E-4</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9789416881208916E-5</v>
       </c>
       <c r="G79" s="3">
@@ -10855,52 +11446,60 @@
         <v>3.4306894909292928E-4</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.7293285137163676E-4</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.277855858501153E-4</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.0626262283713708E-4</v>
       </c>
       <c r="K79">
         <v>0.36274000000000001</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.88664746761369628</v>
       </c>
       <c r="M79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3804031801123786</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="4">
+        <f t="shared" si="22"/>
+        <v>0.37247785376082287</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" si="23"/>
+        <v>0.87252524101407469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>73</v>
       </c>
       <c r="B80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>74</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.0808963142797486E-3</v>
       </c>
       <c r="D80" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1832490384622802E-3</v>
+      </c>
+      <c r="E80" s="3">
         <f t="shared" si="14"/>
-        <v>1.1832490384622802E-3</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="12"/>
         <v>8.7469823569827392E-5</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.1993962324026574E-5</v>
       </c>
       <c r="G80" s="3">
@@ -10908,52 +11507,60 @@
         <v>1.989467466193412E-4</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.2986390227870748E-4</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.7996168968906375E-5</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7847703698702181E-4</v>
       </c>
       <c r="K80">
         <v>0.38406000000000001</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.89169230925270848</v>
       </c>
       <c r="M80" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.2744615056931203</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="4">
+        <f t="shared" si="22"/>
+        <v>0.39204546087974956</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="23"/>
+        <v>0.87819860321002108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>74</v>
       </c>
       <c r="B81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.8976472758174684E-3</v>
       </c>
       <c r="D81" s="3">
+        <f t="shared" si="16"/>
+        <v>7.7164031176565711E-4</v>
+      </c>
+      <c r="E81" s="3">
         <f t="shared" si="14"/>
-        <v>7.7164031176565711E-4</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="12"/>
         <v>5.1310631551999501E-5</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9870897245704341E-5</v>
       </c>
       <c r="G81" s="3">
@@ -10961,52 +11568,60 @@
         <v>1.1147692304951383E-4</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3091715565936628E-4</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.6002206644879794E-5</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0048086801811545E-4</v>
       </c>
       <c r="K81">
         <v>0.40662999999999999</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.89654337226896119</v>
       </c>
       <c r="M81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.1725891823518149</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="4">
+        <f t="shared" si="22"/>
+        <v>0.4126612520911378</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="23"/>
+        <v>0.88365404452927532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="B82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>76</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1260069640518112E-3</v>
       </c>
       <c r="D82" s="3">
+        <f t="shared" si="16"/>
+        <v>4.8441945600472967E-4</v>
+      </c>
+      <c r="E82" s="3">
         <f t="shared" si="14"/>
-        <v>4.8441945600472967E-4</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="12"/>
         <v>2.8996370899057088E-5</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1880503547126999E-5</v>
       </c>
       <c r="G82" s="3">
@@ -11014,52 +11629,60 @@
         <v>6.0166291497514352E-5</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1944023260985246E-4</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6131309399175453E-5</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4478661373235653E-5</v>
       </c>
       <c r="K82">
         <v>0.43020999999999998</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90119241094495717</v>
       </c>
       <c r="M82" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.0749593701558995</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="4">
+        <f t="shared" si="22"/>
+        <v>0.4343180998658529</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="23"/>
+        <v>0.88888229194697865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>76</v>
       </c>
       <c r="B83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>77</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.415875080470815E-4</v>
       </c>
       <c r="D83" s="3">
+        <f t="shared" si="16"/>
+        <v>2.920249701627096E-4</v>
+      </c>
+      <c r="E83" s="3">
         <f t="shared" si="14"/>
-        <v>2.920249701627096E-4</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="12"/>
         <v>1.573508778530832E-5</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.8209357679627953E-6</v>
       </c>
       <c r="G83" s="3">
@@ -11067,52 +11690,60 @@
         <v>3.116992059845726E-5</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9273941112338111E-5</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4250805852048452E-5</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.8347351974060203E-5</v>
       </c>
       <c r="K83">
         <v>0.45516000000000001</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90567056545780911</v>
       </c>
       <c r="M83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.98091812538601</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="4">
+        <f t="shared" si="22"/>
+        <v>0.4571973742131954</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="23"/>
+        <v>0.89391836529452495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>77</v>
       </c>
       <c r="B84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.495625378843719E-4</v>
       </c>
       <c r="D84" s="3">
+        <f t="shared" si="16"/>
+        <v>1.6833533574359813E-4</v>
+      </c>
+      <c r="E84" s="3">
         <f t="shared" si="14"/>
-        <v>1.6833533574359813E-4</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="12"/>
         <v>8.1648621228070343E-6</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.7446390512942432E-6</v>
       </c>
       <c r="G84" s="3">
@@ -11120,52 +11751,60 @@
         <v>1.5434832813148937E-5</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.8104020513880854E-5</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.4298700840856563E-6</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4096546122011751E-5</v>
       </c>
       <c r="K84">
         <v>0.48155999999999999</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90998108386076559</v>
       </c>
       <c r="M84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8903972389239228</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="4">
+        <f t="shared" si="22"/>
+        <v>0.48137029885779836</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="23"/>
+        <v>0.89876591728964617</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="B85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.8122720214077377E-4</v>
       </c>
       <c r="D85" s="3">
+        <f t="shared" si="16"/>
+        <v>9.2333447218702824E-5</v>
+      </c>
+      <c r="E85" s="3">
         <f t="shared" si="14"/>
-        <v>9.2333447218702824E-5</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="12"/>
         <v>4.0314201132838844E-6</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9561602223971487E-6</v>
       </c>
       <c r="G85" s="3">
@@ -11173,52 +11812,60 @@
         <v>7.2699706903419007E-6</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2669187700731917E-5</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.6852310327914128E-6</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6666760379260944E-6</v>
       </c>
       <c r="K85">
         <v>0.50949</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.91412726266068178</v>
       </c>
       <c r="M85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8033274841256823</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="4">
+        <f t="shared" si="22"/>
+        <v>0.50691140167693027</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="23"/>
+        <v>0.90342865514035986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="B86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8.8893754922070946E-5</v>
       </c>
       <c r="D86" s="3">
+        <f t="shared" si="16"/>
+        <v>4.7918178590742344E-5</v>
+      </c>
+      <c r="E86" s="3">
         <f t="shared" si="14"/>
-        <v>4.7918178590742344E-5</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="12"/>
         <v>1.883287504539884E-6</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.668439326878328E-7</v>
       </c>
       <c r="G86" s="3">
@@ -11226,52 +11873,60 @@
         <v>3.2385505770580154E-6</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.3992170103900167E-6</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7290708103942641E-6</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.9814450051346812E-6</v>
       </c>
       <c r="K86">
         <v>0.53905000000000003</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.91811303703026614</v>
       </c>
       <c r="M86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.719626222364409</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="4">
+        <f t="shared" si="22"/>
+        <v>0.53390267320296025</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="23"/>
+        <v>0.9079110042898566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="B87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4.0975576331328601E-5</v>
       </c>
       <c r="D87" s="3">
+        <f t="shared" si="16"/>
+        <v>2.3368780937520014E-5</v>
+      </c>
+      <c r="E87" s="3">
         <f t="shared" si="14"/>
-        <v>2.3368780937520014E-5</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="12"/>
         <v>8.26763214493009E-7</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.4905840843572192E-7</v>
       </c>
       <c r="G87" s="3">
@@ -11279,52 +11934,60 @@
         <v>1.3552630725181316E-6</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1606664333320018E-6</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.6222687770643137E-7</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2523741947404172E-6</v>
       </c>
       <c r="K87">
         <v>0.57030999999999998</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.92194096731051001</v>
       </c>
       <c r="M87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.6392396864792917</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="4">
+        <f t="shared" si="22"/>
+        <v>0.5624198675244535</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="23"/>
+        <v>0.912215844063758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="B88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.7606795393808587E-5</v>
       </c>
       <c r="D88" s="3">
+        <f t="shared" si="16"/>
+        <v>1.0623764272670163E-5</v>
+      </c>
+      <c r="E88" s="3">
         <f t="shared" si="14"/>
-        <v>1.0623764272670163E-5</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="12"/>
         <v>3.3833512917666768E-7</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9442669866086618E-7</v>
       </c>
       <c r="G88" s="3">
@@ -11332,52 +11995,60 @@
         <v>5.2849985802512259E-7</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.0540336081387019E-7</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.1316846927070945E-7</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9014731703398591E-7</v>
       </c>
       <c r="K88">
         <v>0.60338999999999998</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.92561617835191745</v>
       </c>
       <c r="M88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5620602546097335</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4">
+        <f t="shared" si="22"/>
+        <v>0.59256112279943651</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="23"/>
+        <v>0.91634893780117177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
       <c r="B89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.9830311211384243E-6</v>
       </c>
       <c r="D89" s="3">
+        <f t="shared" si="16"/>
+        <v>4.457827407112347E-6</v>
+      </c>
+      <c r="E89" s="3">
         <f t="shared" si="14"/>
-        <v>4.457827407112347E-6</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="12"/>
         <v>1.2779723388834112E-7</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.7698283971084952E-8</v>
       </c>
       <c r="G89" s="3">
@@ -11385,52 +12056,60 @@
         <v>1.9016472884845491E-7</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.769035027887476E-7</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1874177060984327E-7</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7697884776327644E-7</v>
       </c>
       <c r="K89">
         <v>0.63837999999999995</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.9291419461675533</v>
       </c>
       <c r="M89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4880191304813801</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="4">
+        <f t="shared" si="22"/>
+        <v>0.62441532311951675</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="23"/>
+        <v>0.92031396966306978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="B90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.5252037140260773E-6</v>
       </c>
       <c r="D90" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7055478404903528E-6</v>
+      </c>
+      <c r="E90" s="3">
         <f t="shared" si="14"/>
-        <v>1.7055478404903528E-6</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="12"/>
         <v>4.4013367351144688E-8</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.8311493754892024E-8</v>
       </c>
       <c r="G90" s="3">
@@ -11438,52 +12117,60 @@
         <v>6.2367494960113788E-8</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.6738773940292681E-8</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.1043486638758307E-8</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.8237077153433178E-8</v>
       </c>
       <c r="K90">
         <v>0.67540999999999995</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.93252321076248801</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4170125739877468</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="4">
+        <f t="shared" si="22"/>
+        <v>0.65809099219083689</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="23"/>
+        <v>0.9241164951138291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="B91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8.196558735357245E-7</v>
       </c>
       <c r="D91" s="3">
+        <f t="shared" si="16"/>
+        <v>5.8570969411115801E-7</v>
+      </c>
+      <c r="E91" s="3">
         <f t="shared" si="14"/>
-        <v>5.8570969411115801E-7</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="12"/>
         <v>1.3605998960483859E-8</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.25959498779291E-9</v>
       </c>
       <c r="G91" s="3">
@@ -11491,52 +12178,60 @@
         <v>1.8354127608969104E-8</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4371278980178896E-8</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2731992883866283E-8</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7193590514674871E-8</v>
       </c>
       <c r="K91">
         <v>0.71457999999999999</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.9357631821701613</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3489731744266127</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="4">
+        <f t="shared" si="22"/>
+        <v>0.69368553794104304</v>
+      </c>
+      <c r="O91" s="6">
+        <f t="shared" si="23"/>
+        <v>0.92776012411460784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="B92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.3394617942456649E-7</v>
       </c>
       <c r="D92" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7687033003035499E-7</v>
+      </c>
+      <c r="E92" s="3">
         <f t="shared" si="14"/>
-        <v>1.7687033003035499E-7</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="12"/>
         <v>3.6984992602869552E-9</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6630251388140446E-9</v>
       </c>
       <c r="G92" s="3">
@@ -11544,52 +12239,60 @@
         <v>4.7481286484852464E-9</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0171513712097923E-9</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.4723978960733723E-9</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.4615976308085897E-9</v>
       </c>
       <c r="K92">
         <v>0.75602999999999998</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.93886672720436337</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.2837987287083719</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="4">
+        <f t="shared" si="22"/>
+        <v>0.73131925294002742</v>
+      </c>
+      <c r="O92" s="6">
+        <f t="shared" si="23"/>
+        <v>0.93125032981983713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="B93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.7075849394211499E-8</v>
       </c>
       <c r="D93" s="3">
+        <f t="shared" si="16"/>
+        <v>4.5653830413441895E-8</v>
+      </c>
+      <c r="E93" s="3">
         <f t="shared" si="14"/>
-        <v>4.5653830413441895E-8</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="12"/>
         <v>8.59355109078294E-10</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.5464853776147216E-10</v>
       </c>
       <c r="G93" s="3">
@@ -11597,52 +12300,60 @@
         <v>1.0496293881982908E-9</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2690227227245464E-9</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.0937275725932766E-10</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.8919973473521702E-10</v>
       </c>
       <c r="K93">
         <v>0.79988000000000004</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.9418373716628331</v>
       </c>
       <c r="M93" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.2214151950805023</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="4">
+        <f t="shared" si="22"/>
+        <v>0.77110336882681196</v>
+      </c>
+      <c r="O93" s="6">
+        <f t="shared" si="23"/>
+        <v>0.93459107729503044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="B94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1422018980769603E-8</v>
       </c>
       <c r="D94" s="3">
+        <f t="shared" si="16"/>
+        <v>9.666112002855892E-9</v>
+      </c>
+      <c r="E94" s="3">
         <f t="shared" si="14"/>
-        <v>9.666112002855892E-9</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" si="12"/>
         <v>1.6378489945595061E-10</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3200594939294031E-10</v>
       </c>
       <c r="G94" s="3">
@@ -11650,52 +12361,60 @@
         <v>1.9027427911999679E-10</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.1939333452625564E-10</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5472421949785553E-10</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7982697747588941E-10</v>
       </c>
       <c r="K94">
         <v>0.84626999999999997</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94467939359371822</v>
       </c>
       <c r="M94" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1617327345319182</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="4">
+        <f t="shared" si="22"/>
+        <v>0.81316413449806557</v>
+      </c>
+      <c r="O94" s="6">
+        <f t="shared" si="23"/>
+        <v>0.93778717757656294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="B95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>89</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.7559069779137113E-9</v>
       </c>
       <c r="D95" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5721688717448206E-9</v>
+      </c>
+      <c r="E95" s="3">
         <f t="shared" si="14"/>
-        <v>1.5721688717448206E-9</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="12"/>
         <v>2.3979669136536468E-11</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0448034817227898E-11</v>
       </c>
       <c r="G95" s="3">
@@ -11703,49 +12422,57 @@
         <v>2.6489379664046205E-11</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.9119055406258845E-11</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.271827010491522E-11</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.5102757978033878E-11</v>
       </c>
       <c r="K95">
         <v>0.89536000000000004</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94739714612244896</v>
       </c>
       <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O95" s="6">
+        <f t="shared" si="23"/>
+        <v>0.94739714612244896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>89</v>
       </c>
       <c r="B96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.8373810616889075E-10</v>
       </c>
       <c r="D96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7405327059272852E-10</v>
+      </c>
+      <c r="E96" s="3">
         <f t="shared" si="14"/>
-        <v>1.7405327059272852E-10</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="12"/>
         <v>2.3897453128068344E-12</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1559827022559863E-12</v>
       </c>
       <c r="G96" s="3">
@@ -11753,49 +12480,57 @@
         <v>2.5097105275097376E-12</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.6296757422126407E-12</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2702352876873224E-12</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3844878731186585E-12</v>
       </c>
       <c r="K96">
         <v>0.94728999999999997</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.94999047619047594</v>
       </c>
       <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O96" s="6">
+        <f t="shared" si="23"/>
+        <v>0.94999047619047594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="B97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>91</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.6848355761622304E-12</v>
       </c>
       <c r="D97" s="3">
+        <f t="shared" si="16"/>
+        <v>9.6848355761622304E-12</v>
+      </c>
+      <c r="E97" s="3">
         <f t="shared" si="14"/>
-        <v>9.6848355761622304E-12</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="12"/>
         <v>1.1996521470290305E-13</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1425258543133624E-13</v>
       </c>
       <c r="G97" s="3">
@@ -11803,49 +12538,57 @@
         <v>1.1996521470290305E-13</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1996521470290305E-13</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1425258543133624E-13</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1425258543133624E-13</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95238095238095244</v>
       </c>
       <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O97" s="6">
+        <f t="shared" si="23"/>
+        <v>0.95238095238095244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>91</v>
       </c>
       <c r="B98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>92</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D98" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E98" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="F98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G98" s="3">
@@ -11853,46 +12596,54 @@
         <v>0</v>
       </c>
       <c r="H98" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M98" s="4"/>
+      <c r="N98" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O98" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="20"/>
-        <v>92</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="20"/>
-        <v>93</v>
-      </c>
-      <c r="C99" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F99" s="5">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G99" s="3">
@@ -11900,46 +12651,54 @@
         <v>0</v>
       </c>
       <c r="H99" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="4"/>
+      <c r="N99" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O99" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="20"/>
-        <v>93</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="20"/>
-        <v>94</v>
-      </c>
-      <c r="C100" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G100" s="3">
@@ -11947,46 +12706,54 @@
         <v>0</v>
       </c>
       <c r="H100" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="4"/>
+      <c r="N100" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O100" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="24"/>
+        <v>95</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="20"/>
-        <v>94</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="20"/>
-        <v>95</v>
-      </c>
-      <c r="C101" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="5">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G101" s="3">
@@ -11994,46 +12761,54 @@
         <v>0</v>
       </c>
       <c r="H101" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="4"/>
+      <c r="N101" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O101" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="24"/>
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="20"/>
-        <v>95</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="20"/>
-        <v>96</v>
-      </c>
-      <c r="C102" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G102" s="3">
@@ -12041,46 +12816,54 @@
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I102" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="4"/>
+      <c r="N102" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O102" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J102" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="20"/>
-        <v>96</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="20"/>
-        <v>97</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E103" s="3">
-        <f t="shared" ref="E103:E126" si="22">C103*v^A103</f>
+        <f t="shared" ref="E103:E126" si="26">C103*v^A103</f>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" ref="F103:F126" si="23">v^(1+A103)*(C103-C104)</f>
+        <f t="shared" ref="F103:F126" si="27">v^(1+A103)*(C103-C104)</f>
         <v>0</v>
       </c>
       <c r="G103" s="3">
@@ -12088,46 +12871,54 @@
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I103" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="4"/>
+      <c r="N103" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O103" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J103" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="20"/>
-        <v>97</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="20"/>
-        <v>98</v>
-      </c>
-      <c r="C104" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E104" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G104" s="3">
@@ -12135,46 +12926,54 @@
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I104" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M104" s="4"/>
+      <c r="N104" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J104" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="20"/>
-        <v>98</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="20"/>
-        <v>99</v>
-      </c>
-      <c r="C105" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D105" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E105" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G105" s="3">
@@ -12182,46 +12981,54 @@
         <v>0</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I105" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M105" s="4"/>
+      <c r="N105" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J105" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="20"/>
-        <v>99</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="C106" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E106" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G106" s="3">
@@ -12229,46 +13036,54 @@
         <v>0</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I106" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M106" s="4"/>
+      <c r="N106" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O106" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="24"/>
+        <v>101</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J106" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L106" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="20"/>
-        <v>101</v>
-      </c>
-      <c r="C107" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D107" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G107" s="3">
@@ -12276,46 +13091,54 @@
         <v>0</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I107" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M107" s="4"/>
+      <c r="N107" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O107" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="24"/>
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="24"/>
+        <v>102</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J107" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="20"/>
-        <v>101</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="20"/>
-        <v>102</v>
-      </c>
-      <c r="C108" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D108" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E108" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G108" s="3">
@@ -12323,46 +13146,54 @@
         <v>0</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I108" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M108" s="4"/>
+      <c r="N108" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O108" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="24"/>
+        <v>102</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="24"/>
+        <v>103</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J108" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="20"/>
-        <v>102</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="20"/>
-        <v>103</v>
-      </c>
-      <c r="C109" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D109" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E109" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G109" s="3">
@@ -12370,46 +13201,54 @@
         <v>0</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I109" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M109" s="4"/>
+      <c r="N109" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O109" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="24"/>
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="24"/>
+        <v>104</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J109" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="20"/>
-        <v>103</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="20"/>
-        <v>104</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D110" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E110" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G110" s="3">
@@ -12417,46 +13256,54 @@
         <v>0</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I110" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O110" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="24"/>
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="24"/>
+        <v>105</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J110" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f t="shared" si="20"/>
-        <v>104</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="20"/>
-        <v>105</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D111" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E111" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G111" s="3">
@@ -12464,46 +13311,54 @@
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I111" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M111" s="4"/>
+      <c r="N111" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O111" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="24"/>
+        <v>105</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="24"/>
+        <v>106</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J111" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f t="shared" si="20"/>
-        <v>105</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="20"/>
-        <v>106</v>
-      </c>
-      <c r="C112" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D112" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E112" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G112" s="3">
@@ -12511,46 +13366,54 @@
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I112" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O112" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="24"/>
+        <v>106</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="24"/>
+        <v>107</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J112" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="20"/>
-        <v>106</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="20"/>
-        <v>107</v>
-      </c>
-      <c r="C113" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E113" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G113" s="3">
@@ -12558,46 +13421,54 @@
         <v>0</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I113" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M113" s="4"/>
+      <c r="N113" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O113" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="24"/>
+        <v>107</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="24"/>
+        <v>108</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J113" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="20"/>
-        <v>107</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="20"/>
-        <v>108</v>
-      </c>
-      <c r="C114" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D114" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E114" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G114" s="3">
@@ -12605,46 +13476,54 @@
         <v>0</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I114" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M114" s="4"/>
+      <c r="N114" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O114" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="24"/>
+        <v>108</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="24"/>
+        <v>109</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J114" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="20"/>
-        <v>108</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="20"/>
-        <v>109</v>
-      </c>
-      <c r="C115" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D115" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E115" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G115" s="3">
@@ -12652,46 +13531,54 @@
         <v>0</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I115" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M115" s="4"/>
+      <c r="N115" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O115" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="24"/>
+        <v>109</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J115" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="20"/>
-        <v>109</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="20"/>
-        <v>110</v>
-      </c>
-      <c r="C116" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D116" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E116" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G116" s="3">
@@ -12699,46 +13586,54 @@
         <v>0</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I116" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O116" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="24"/>
+        <v>111</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J116" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="20"/>
-        <v>110</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="20"/>
-        <v>111</v>
-      </c>
-      <c r="C117" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D117" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E117" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G117" s="3">
@@ -12746,46 +13641,54 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I117" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M117" s="4"/>
+      <c r="N117" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O117" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="24"/>
+        <v>111</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="24"/>
+        <v>112</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J117" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="20"/>
-        <v>111</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="20"/>
-        <v>112</v>
-      </c>
-      <c r="C118" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E118" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G118" s="3">
@@ -12793,46 +13696,54 @@
         <v>0</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I118" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="4"/>
+      <c r="N118" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O118" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="24"/>
+        <v>112</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="24"/>
+        <v>113</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J118" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="20"/>
-        <v>112</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="20"/>
-        <v>113</v>
-      </c>
-      <c r="C119" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D119" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E119" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G119" s="3">
@@ -12840,46 +13751,54 @@
         <v>0</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I119" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M119" s="4"/>
+      <c r="N119" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O119" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="24"/>
+        <v>113</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="24"/>
+        <v>114</v>
+      </c>
+      <c r="C120" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J119" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="20"/>
-        <v>113</v>
-      </c>
-      <c r="B120">
-        <f t="shared" si="20"/>
-        <v>114</v>
-      </c>
-      <c r="C120" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E120" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G120" s="3">
@@ -12887,46 +13806,54 @@
         <v>0</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I120" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O120" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="24"/>
+        <v>114</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="24"/>
+        <v>115</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J120" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="20"/>
-        <v>114</v>
-      </c>
-      <c r="B121">
-        <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="C121" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D121" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E121" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G121" s="3">
@@ -12934,46 +13861,54 @@
         <v>0</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I121" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M121" s="4"/>
+      <c r="N121" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O121" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="24"/>
+        <v>115</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="24"/>
+        <v>116</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J121" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="20"/>
-        <v>115</v>
-      </c>
-      <c r="B122">
-        <f t="shared" si="20"/>
-        <v>116</v>
-      </c>
-      <c r="C122" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D122" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E122" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G122" s="3">
@@ -12981,46 +13916,54 @@
         <v>0</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I122" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O122" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="24"/>
+        <v>116</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="24"/>
+        <v>117</v>
+      </c>
+      <c r="C123" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J122" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="20"/>
-        <v>116</v>
-      </c>
-      <c r="B123">
-        <f t="shared" si="20"/>
-        <v>117</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D123" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E123" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G123" s="3">
@@ -13028,46 +13971,54 @@
         <v>0</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I123" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M123" s="4"/>
+      <c r="N123" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O123" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="24"/>
+        <v>117</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="24"/>
+        <v>118</v>
+      </c>
+      <c r="C124" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J123" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="20"/>
-        <v>117</v>
-      </c>
-      <c r="B124">
-        <f t="shared" si="20"/>
-        <v>118</v>
-      </c>
-      <c r="C124" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D124" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E124" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G124" s="3">
@@ -13075,46 +14026,54 @@
         <v>0</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I124" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M124" s="4"/>
+      <c r="N124" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O124" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="24"/>
+        <v>118</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J124" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f t="shared" si="20"/>
-        <v>118</v>
-      </c>
-      <c r="B125">
-        <f t="shared" si="20"/>
-        <v>119</v>
-      </c>
-      <c r="C125" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D125" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E125" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G125" s="3">
@@ -13122,46 +14081,54 @@
         <v>0</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I125" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M125" s="4"/>
+      <c r="N125" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O125" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="24"/>
+        <v>120</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J125" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="20"/>
-        <v>119</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="20"/>
-        <v>120</v>
-      </c>
-      <c r="C126" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D126" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="E126" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G126" s="3">
@@ -13169,24 +14136,32 @@
         <v>0</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L126" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O126" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
